--- a/SchedulingData/dynamic15/pso/scheduling1_4.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>76.81999999999999</v>
+        <v>52.66</v>
       </c>
       <c r="E2" t="n">
-        <v>26.448</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>52.66</v>
       </c>
       <c r="D3" t="n">
-        <v>59.16</v>
+        <v>104.74</v>
       </c>
       <c r="E3" t="n">
-        <v>26.744</v>
+        <v>23.816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59.16</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>134.66</v>
+        <v>77.12</v>
       </c>
       <c r="E4" t="n">
-        <v>21.824</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>49.56</v>
+        <v>56.2</v>
       </c>
       <c r="E5" t="n">
-        <v>26.724</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.56</v>
+        <v>56.2</v>
       </c>
       <c r="D6" t="n">
-        <v>102.04</v>
+        <v>136.2</v>
       </c>
       <c r="E6" t="n">
-        <v>22.616</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>102.04</v>
+        <v>104.74</v>
       </c>
       <c r="D7" t="n">
-        <v>150.8</v>
+        <v>165.34</v>
       </c>
       <c r="E7" t="n">
-        <v>19.88</v>
+        <v>18.896</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>81.40000000000001</v>
+        <v>44.3</v>
       </c>
       <c r="E8" t="n">
-        <v>25.02</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>136.2</v>
       </c>
       <c r="D9" t="n">
-        <v>53.4</v>
+        <v>202.64</v>
       </c>
       <c r="E9" t="n">
-        <v>26.34</v>
+        <v>17.156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76.81999999999999</v>
+        <v>44.3</v>
       </c>
       <c r="D10" t="n">
-        <v>166.72</v>
+        <v>97.2</v>
       </c>
       <c r="E10" t="n">
-        <v>21.528</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>81.40000000000001</v>
+        <v>202.64</v>
       </c>
       <c r="D11" t="n">
-        <v>142.64</v>
+        <v>257.74</v>
       </c>
       <c r="E11" t="n">
-        <v>21.016</v>
+        <v>13.776</v>
       </c>
     </row>
     <row r="12">
@@ -656,55 +656,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>77.12</v>
       </c>
       <c r="D12" t="n">
-        <v>83.5</v>
+        <v>127.94</v>
       </c>
       <c r="E12" t="n">
-        <v>25.32</v>
+        <v>22.016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>83.5</v>
+        <v>97.2</v>
       </c>
       <c r="D13" t="n">
-        <v>152.78</v>
+        <v>159.1</v>
       </c>
       <c r="E13" t="n">
-        <v>21.512</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>152.78</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.2</v>
+        <v>82.22</v>
       </c>
       <c r="E14" t="n">
-        <v>17.48</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="15">
@@ -713,60 +713,60 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>134.66</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>181.94</v>
+        <v>62.88</v>
       </c>
       <c r="E15" t="n">
-        <v>18.236</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53.4</v>
+        <v>159.1</v>
       </c>
       <c r="D16" t="n">
-        <v>120.1</v>
+        <v>197.76</v>
       </c>
       <c r="E16" t="n">
-        <v>23.26</v>
+        <v>15.804</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>166.72</v>
+        <v>165.34</v>
       </c>
       <c r="D17" t="n">
-        <v>232.82</v>
+        <v>226.44</v>
       </c>
       <c r="E17" t="n">
-        <v>18.008</v>
+        <v>13.916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -774,51 +774,51 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>142.64</v>
+        <v>62.88</v>
       </c>
       <c r="D18" t="n">
-        <v>208.74</v>
+        <v>109.38</v>
       </c>
       <c r="E18" t="n">
-        <v>18.496</v>
+        <v>23.372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>181.94</v>
+        <v>257.74</v>
       </c>
       <c r="D19" t="n">
-        <v>253.26</v>
+        <v>322.1</v>
       </c>
       <c r="E19" t="n">
-        <v>14.204</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>232.82</v>
+        <v>127.94</v>
       </c>
       <c r="D20" t="n">
-        <v>283.5</v>
+        <v>165.54</v>
       </c>
       <c r="E20" t="n">
-        <v>15.06</v>
+        <v>18.896</v>
       </c>
     </row>
     <row r="21">
@@ -827,397 +827,397 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>253.26</v>
+        <v>109.38</v>
       </c>
       <c r="D21" t="n">
-        <v>301.4</v>
+        <v>173.32</v>
       </c>
       <c r="E21" t="n">
-        <v>11.5</v>
+        <v>20.068</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>234.2</v>
+        <v>197.76</v>
       </c>
       <c r="D22" t="n">
-        <v>285.02</v>
+        <v>243.14</v>
       </c>
       <c r="E22" t="n">
-        <v>13.528</v>
+        <v>12.396</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>283.5</v>
+        <v>165.54</v>
       </c>
       <c r="D23" t="n">
-        <v>342.9</v>
+        <v>234.76</v>
       </c>
       <c r="E23" t="n">
-        <v>10.26</v>
+        <v>15.104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>285.02</v>
+        <v>243.14</v>
       </c>
       <c r="D24" t="n">
-        <v>328.58</v>
+        <v>295.92</v>
       </c>
       <c r="E24" t="n">
-        <v>10.792</v>
+        <v>8.747999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>208.74</v>
+        <v>322.1</v>
       </c>
       <c r="D25" t="n">
-        <v>255.1</v>
+        <v>396.6</v>
       </c>
       <c r="E25" t="n">
-        <v>15.48</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>301.4</v>
+        <v>396.6</v>
       </c>
       <c r="D26" t="n">
-        <v>374.66</v>
+        <v>463.6</v>
       </c>
       <c r="E26" t="n">
-        <v>7.804</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>255.1</v>
+        <v>234.76</v>
       </c>
       <c r="D27" t="n">
-        <v>308.7</v>
+        <v>308.52</v>
       </c>
       <c r="E27" t="n">
-        <v>12.24</v>
+        <v>11.848</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>342.9</v>
+        <v>295.92</v>
       </c>
       <c r="D28" t="n">
-        <v>386.76</v>
+        <v>348.52</v>
       </c>
       <c r="E28" t="n">
-        <v>7.004</v>
+        <v>5.108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>150.8</v>
+        <v>308.52</v>
       </c>
       <c r="D29" t="n">
-        <v>196.18</v>
+        <v>367.82</v>
       </c>
       <c r="E29" t="n">
-        <v>16.472</v>
+        <v>7.048</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>196.18</v>
+        <v>173.32</v>
       </c>
       <c r="D30" t="n">
-        <v>268.26</v>
+        <v>219.82</v>
       </c>
       <c r="E30" t="n">
-        <v>12.884</v>
+        <v>16.548</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>268.26</v>
+        <v>219.82</v>
       </c>
       <c r="D31" t="n">
-        <v>342.28</v>
+        <v>268.18</v>
       </c>
       <c r="E31" t="n">
-        <v>9.092000000000001</v>
+        <v>12.852</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>308.7</v>
+        <v>367.82</v>
       </c>
       <c r="D32" t="n">
-        <v>373.2</v>
+        <v>442.1</v>
       </c>
       <c r="E32" t="n">
-        <v>8.880000000000001</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>342.28</v>
+        <v>268.18</v>
       </c>
       <c r="D33" t="n">
-        <v>416.88</v>
+        <v>352.04</v>
       </c>
       <c r="E33" t="n">
-        <v>6.232</v>
+        <v>9.576000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>373.2</v>
+        <v>226.44</v>
       </c>
       <c r="D34" t="n">
-        <v>422.04</v>
+        <v>281.86</v>
       </c>
       <c r="E34" t="n">
-        <v>5.616</v>
+        <v>11.004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>416.88</v>
+        <v>348.52</v>
       </c>
       <c r="D35" t="n">
-        <v>458.98</v>
+        <v>393.84</v>
       </c>
       <c r="E35" t="n">
-        <v>4.152</v>
+        <v>2.196</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>458.98</v>
+        <v>393.84</v>
       </c>
       <c r="D36" t="n">
-        <v>498.94</v>
+        <v>456.45</v>
       </c>
       <c r="E36" t="n">
-        <v>1.296</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>498.94</v>
+        <v>456.45</v>
       </c>
       <c r="D37" t="n">
-        <v>573.25</v>
+        <v>510.07</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>422.04</v>
+        <v>281.86</v>
       </c>
       <c r="D38" t="n">
-        <v>464.54</v>
+        <v>315.62</v>
       </c>
       <c r="E38" t="n">
-        <v>2.496</v>
+        <v>8.268000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>328.58</v>
+        <v>315.62</v>
       </c>
       <c r="D39" t="n">
-        <v>393.58</v>
+        <v>359.48</v>
       </c>
       <c r="E39" t="n">
-        <v>7.412</v>
+        <v>5.012</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>374.66</v>
+        <v>463.6</v>
       </c>
       <c r="D40" t="n">
-        <v>440.72</v>
+        <v>534.3200000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>3.828</v>
+        <v>1.448</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>393.58</v>
+        <v>534.3200000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>479.98</v>
+        <v>632.8200000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>2.852</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -1226,33 +1226,33 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>440.72</v>
+        <v>352.04</v>
       </c>
       <c r="D42" t="n">
-        <v>493.32</v>
+        <v>415.14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.188</v>
+        <v>4.896</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>493.32</v>
+        <v>442.1</v>
       </c>
       <c r="D43" t="n">
-        <v>569.74</v>
+        <v>532.12</v>
       </c>
       <c r="E43" t="n">
         <v>30</v>
@@ -1260,21 +1260,21 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>569.74</v>
+        <v>532.12</v>
       </c>
       <c r="D44" t="n">
-        <v>622.98</v>
+        <v>584.9</v>
       </c>
       <c r="E44" t="n">
-        <v>26.876</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="45">
@@ -1283,112 +1283,112 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>464.54</v>
+        <v>510.07</v>
       </c>
       <c r="D45" t="n">
-        <v>546.25</v>
+        <v>572.41</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>23.684</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>546.25</v>
+        <v>359.48</v>
       </c>
       <c r="D46" t="n">
-        <v>636.85</v>
+        <v>444.28</v>
       </c>
       <c r="E46" t="n">
-        <v>26.08</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>120.1</v>
+        <v>444.28</v>
       </c>
       <c r="D47" t="n">
-        <v>182.68</v>
+        <v>513.02</v>
       </c>
       <c r="E47" t="n">
-        <v>19.612</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>622.98</v>
+        <v>513.02</v>
       </c>
       <c r="D48" t="n">
-        <v>677.46</v>
+        <v>545.72</v>
       </c>
       <c r="E48" t="n">
-        <v>24.068</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>636.85</v>
+        <v>82.22</v>
       </c>
       <c r="D49" t="n">
-        <v>711.77</v>
+        <v>178.54</v>
       </c>
       <c r="E49" t="n">
-        <v>23.168</v>
+        <v>22.416</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>386.76</v>
+        <v>572.41</v>
       </c>
       <c r="D50" t="n">
-        <v>429.66</v>
+        <v>621.09</v>
       </c>
       <c r="E50" t="n">
-        <v>4.844</v>
+        <v>20.436</v>
       </c>
     </row>
     <row r="51">
@@ -1397,93 +1397,93 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>429.66</v>
+        <v>178.54</v>
       </c>
       <c r="D51" t="n">
-        <v>491.76</v>
+        <v>215.74</v>
       </c>
       <c r="E51" t="n">
-        <v>1.724</v>
+        <v>19.336</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>491.76</v>
+        <v>545.72</v>
       </c>
       <c r="D52" t="n">
-        <v>555.3099999999999</v>
+        <v>593.3200000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>25.76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>573.25</v>
+        <v>632.8200000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>626.87</v>
+        <v>667.9</v>
       </c>
       <c r="E53" t="n">
-        <v>26.808</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>182.68</v>
+        <v>215.74</v>
       </c>
       <c r="D54" t="n">
-        <v>243.8</v>
+        <v>289.48</v>
       </c>
       <c r="E54" t="n">
-        <v>16.62</v>
+        <v>16.072</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>243.8</v>
+        <v>593.3200000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>294.08</v>
+        <v>644.6799999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>13.232</v>
+        <v>22.744</v>
       </c>
     </row>
     <row r="56">
@@ -1492,93 +1492,112 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>555.3099999999999</v>
+        <v>289.48</v>
       </c>
       <c r="D56" t="n">
-        <v>629.75</v>
+        <v>322.92</v>
       </c>
       <c r="E56" t="n">
-        <v>26.696</v>
+        <v>13.368</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>294.08</v>
+        <v>322.92</v>
       </c>
       <c r="D57" t="n">
-        <v>362.56</v>
+        <v>374.08</v>
       </c>
       <c r="E57" t="n">
-        <v>9.984</v>
+        <v>9.391999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>362.56</v>
+        <v>584.9</v>
       </c>
       <c r="D58" t="n">
-        <v>412.56</v>
+        <v>624.8</v>
       </c>
       <c r="E58" t="n">
-        <v>6.604</v>
+        <v>23.552</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>626.87</v>
+        <v>374.08</v>
       </c>
       <c r="D59" t="n">
-        <v>687.1900000000001</v>
+        <v>424.66</v>
       </c>
       <c r="E59" t="n">
-        <v>23.896</v>
+        <v>6.444</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>412.56</v>
+        <v>415.14</v>
       </c>
       <c r="D60" t="n">
-        <v>469.62</v>
+        <v>475.12</v>
       </c>
       <c r="E60" t="n">
-        <v>4.008</v>
+        <v>1.508</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>depot1</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>475.12</v>
+      </c>
+      <c r="D61" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
